--- a/id.xlsx
+++ b/id.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022_10_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D6B95F-A3F6-4E36-8B90-13A82986029D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49940542-5A6D-476B-8003-95DB632497CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4236" yWindow="1668" windowWidth="16584" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1992" yWindow="1464" windowWidth="16584" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,9 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,30 +355,31 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>301092401424</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>301092401424</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>